--- a/utility/MatrizAvianca.xlsx
+++ b/utility/MatrizAvianca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VisualCode\TF- MATE DISCRETA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gabriel\Avianca\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C63537-EDB4-442A-BD60-F011E5A59D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5774D029-6DB6-4042-B67F-F2218700915A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A41823DD-1DDA-4051-9BD7-F9DAD1FDD5D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A41823DD-1DDA-4051-9BD7-F9DAD1FDD5D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz Universal" sheetId="3" r:id="rId1"/>
@@ -419,17 +419,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25392D0-B0A0-4C8C-BA7B-35941D037D52}">
   <dimension ref="A1:BC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="49" max="49" width="11.21875" customWidth="1"/>
-    <col min="50" max="50" width="11.6640625" customWidth="1"/>
+    <col min="49" max="49" width="11.28515625" customWidth="1"/>
+    <col min="50" max="50" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>0</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>0</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>0</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>0</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>0</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2">
         <v>1</v>
@@ -9447,7 +9447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>0</v>
       </c>
@@ -9627,9 +9627,9 @@
       <selection sqref="A1:BD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -14727,7 +14727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -16087,7 +16087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -16257,7 +16257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>0</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -17787,7 +17787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -17957,7 +17957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>0</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>0</v>
       </c>
@@ -18297,7 +18297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>0</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>0</v>
       </c>
@@ -18637,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>0</v>
       </c>
@@ -18807,7 +18807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>0</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>0</v>
       </c>
